--- a/P5_02_plantests.xlsx
+++ b/P5_02_plantests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaelletakforyan/Desktop/Openclassrooms/Projet-5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963EF010-2981-304D-879D-205582540E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E90C04B-E99E-464C-B23C-DAB19972A111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
